--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3236634.578229369</v>
+        <v>3340814.21268044</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2794969711049</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>86.49882815414909</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247824</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.5374779776671</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>148.5598136933865</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>398.2527805383321</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.182585533881204</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8.04170917992572</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0726475186577</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>47.87730750143871</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>57.81578986397329</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>36.95776810596842</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.020252688888165</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.43112068613158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>5.640152769375217</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>64.35711883683339</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>122.2059282187645</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.20606459030872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>33.8289189178749</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>72.31842549662581</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.7027769252548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.18584932336235</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3046100066265</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.82913822149973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>142.7059665293327</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>14.75529838241564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>7.155999212083079</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>106.3612762946744</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>41.69085152457905</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>150.6726801246967</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>103.3868790795868</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>171.0609515538979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.13627195705941</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>75.00788511618104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.169188758596</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.206671818184</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1150.940973211434</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>765.1527206131893</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>354.1668158235818</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>343.1347697089823</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265602</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995487</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758596</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686093</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064768</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1869.175883464587</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1869.175883464587</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.409268034113</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1358.306401159757</v>
+        <v>1363.781630612738</v>
       </c>
       <c r="V4" t="n">
-        <v>1103.62191295387</v>
+        <v>1363.781630612738</v>
       </c>
       <c r="W4" t="n">
-        <v>1103.62191295387</v>
+        <v>1074.364460575777</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.62191295387</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>846.3749096777597</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796274</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796274</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796274</v>
+        <v>1323.570355598076</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796274</v>
+        <v>937.782102999832</v>
       </c>
       <c r="F5" t="n">
-        <v>510.7845510900199</v>
+        <v>526.7961982102245</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>111.7237480552209</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>553.2677753977071</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1727.485725349738</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1438.382858475381</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1183.698370269494</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1183.698370269494</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X7" t="n">
-        <v>955.7088193714769</v>
+        <v>1179.461940292386</v>
       </c>
       <c r="Y7" t="n">
-        <v>734.9162402279468</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855437</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>953.6440892486864</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>567.8558366504421</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>156.8699318608346</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>588.395308462682</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>419.4591255347751</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>419.4591255347751</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>271.546031952382</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1642.727446381041</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1353.624579506684</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1098.940091300797</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>809.5229212638368</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>809.5229212638368</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.5229212638368</v>
+        <v>588.395308462682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.365421478097</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5263,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2314.910189088387</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2095.308724111328</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1806.233497455525</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.549009249638</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1262.131839212678</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711303</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>127.9872882175424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>127.9872882175424</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>127.9872882175424</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6054,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257311</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,13 +6305,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
         <v>949.9304447718133</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>3295.835008173203</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>3126.898825245296</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>2976.782185832961</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>2828.869092250568</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2303.221053270537</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>2083.619588293478</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.544361637675</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V28" t="n">
-        <v>1539.859873431788</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.442703394828</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X28" t="n">
-        <v>1022.45315249681</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y28" t="n">
-        <v>801.6605733532803</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,7 +6481,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6494,16 +6496,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.1291986799072</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2977.325134535463</v>
+        <v>3045.530642171612</v>
       </c>
       <c r="C34" t="n">
-        <v>2808.388951607556</v>
+        <v>2876.594459243705</v>
       </c>
       <c r="D34" t="n">
-        <v>2808.388951607556</v>
+        <v>2876.594459243705</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>3455.199968177789</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509233</v>
+        <v>3447.971686145382</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365703</v>
+        <v>3227.179107001852</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558404</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630497</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630497</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630497</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2479.398563024105</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532174</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388644</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650097</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.17289944421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3897.17289944421</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055628</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711973</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>886.249074742708</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>736.1324353303722</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.958229442984</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.968678544967</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.176099401437</v>
+        <v>1236.833722500854</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3227.225672628157</v>
+        <v>3336.216066251167</v>
       </c>
       <c r="C46" t="n">
-        <v>3058.28948970025</v>
+        <v>3167.27988332326</v>
       </c>
       <c r="D46" t="n">
-        <v>2908.172850287915</v>
+        <v>3017.163243910925</v>
       </c>
       <c r="E46" t="n">
-        <v>2760.259756705521</v>
+        <v>2869.250150328532</v>
       </c>
       <c r="F46" t="n">
-        <v>2613.369809207611</v>
+        <v>2722.360202830621</v>
       </c>
       <c r="G46" t="n">
-        <v>2446.173709922491</v>
+        <v>2555.164103545501</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>2413.452272387699</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7828,28 +7830,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4401.757925742791</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>4147.073437536905</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>3857.656267499944</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.666716601927</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y46" t="n">
-        <v>3408.874137458397</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.765297557913</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>116.6691671648112</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.3170701178265</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.3785887617861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>108.2431272522978</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>47.43691740069063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>94.92839560200203</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.88187642683997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>46.2351986995689</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>38.72167599501807</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.0028419604376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.727996117236472</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>131.6786642641535</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>218.5536561769541</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.12601365260369</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.5559695740488</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>75.0369752643405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.04708356698239</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1584408891645</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.25795120238449</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231447</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314487</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179357</v>
-      </c>
       <c r="O4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179348</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342754</v>
+        <v>-788095.1604342756</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933173</v>
+        <v>540649.585293317</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933174</v>
+        <v>540649.585293317</v>
       </c>
       <c r="E6" t="n">
-        <v>288729.9158379497</v>
+        <v>288729.9158379493</v>
       </c>
       <c r="F6" t="n">
         <v>614142.3776453049</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453047</v>
+        <v>614142.3776453049</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453047</v>
+        <v>614142.3776453048</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453044</v>
+        <v>614142.3776453049</v>
       </c>
       <c r="J6" t="n">
-        <v>396611.1752480268</v>
+        <v>396611.1752480273</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.3776453047</v>
+        <v>614142.3776453045</v>
       </c>
       <c r="L6" t="n">
         <v>614142.3776453048</v>
@@ -26555,13 +26557,13 @@
         <v>529087.349709793</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.3776453049</v>
+        <v>614142.377645305</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.3776453044</v>
+        <v>614142.3776453047</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.3776453047</v>
+        <v>614142.377645305</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.32826741621551</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>262.7421405632639</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>31.39467469238021</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>137.6520245122264</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.66894511512135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>291.4251788534393</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>211.5072400962435</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>112.6370078703794</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>363.0444181520147</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>291.4251788534397</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>108.4632799169628</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>216.528696587281</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.729124313443118e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>414.9172504145583</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32017,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32072,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>624.1318526922785</v>
+        <v>459.3154675919703</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>459.3154675919703</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,7 +33034,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>518.439455159358</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33280,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>506.0735392239789</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>504.7812948344583</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33673,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>283.575538331225</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>481.5356082478341</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>376.3054212373396</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>362.64726091244</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3340814.21268044</v>
+        <v>3336801.602666447</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087150.981114479</v>
+        <v>8087150.98111448</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>394.54006250777</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>86.49882815414909</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>41.95995423521121</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>148.5598136933865</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340823</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>3.182585533881204</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.70057996958599</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>113.0726475186577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>52.477506711937</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>57.81578986397329</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.95776810596842</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>121.7519142066482</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>38.21875275158361</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>5.640152769375217</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>122.2059282187645</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>95.21019414968927</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.58885292963951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>72.31842549662581</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.18584932336235</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="E31" t="n">
-        <v>142.7059665293327</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>7.155999212083079</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518789</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3612762946744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.69085152457905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>103.3868790795868</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>75.00788511618104</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2332.706849548772</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1963.74433260836</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1605.478634001609</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1219.690381403365</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W2" t="n">
-        <v>2701.192632958762</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697682</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697682</v>
+        <v>2719.306689612893</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064761</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>846.3749096777597</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="U4" t="n">
-        <v>1363.781630612738</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="V4" t="n">
-        <v>1363.781630612738</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="W4" t="n">
-        <v>1074.364460575777</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X4" t="n">
-        <v>846.3749096777597</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.3749096777597</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1381.278680221565</v>
       </c>
       <c r="C5" t="n">
-        <v>1681.836054204827</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.570355598076</v>
+        <v>654.0504646744032</v>
       </c>
       <c r="E5" t="n">
-        <v>937.782102999832</v>
+        <v>268.262212076159</v>
       </c>
       <c r="F5" t="n">
-        <v>526.7961982102245</v>
+        <v>77.54416254678283</v>
       </c>
       <c r="G5" t="n">
-        <v>111.7237480552209</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1767.878520285687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959802</v>
@@ -4722,19 +4722,19 @@
         <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.676735765777</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3272.598239071861</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.395308462682</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>419.4591255347751</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>419.4591255347751</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>271.546031952382</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.395308462682</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>886.2490747427084</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>736.1324353303727</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>588.2193417479796</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>441.3293942500692</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>274.1332949649491</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>132.4214638071472</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.365421478097</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.290194822295</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.605706616408</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.188536579448</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.19898568143</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3295.835008173203</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3126.898825245296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2976.782185832961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2828.869092250568</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.835008173203</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3045.530642171612</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2876.594459243705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177789</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3447.971686145382</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3227.179107001852</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168636</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,55 +7162,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>886.249074742708</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>736.1324353303722</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1236.833722500854</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3336.216066251167</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3167.27988332326</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>3017.163243910925</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2869.250150328532</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2722.360202830621</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2555.164103545501</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2413.452272387699</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3738.657110224937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3517.864531081407</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>43.04708356698191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.765297557913</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>164.3170701178265</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>53.40527886852308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.2431272522978</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>94.92839560200203</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>46.2351986995689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.48834544997018</v>
       </c>
       <c r="E31" t="n">
-        <v>3.727996117236472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>218.5536561769541</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5559695740488</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>43.04708356698239</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>6.25795120238449</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.066132532898337e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551196</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231449</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179358</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179358</v>
-      </c>
       <c r="M4" t="n">
+        <v>11167.03225179341</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342756</v>
+        <v>-788095.1604342754</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.585293317</v>
+        <v>540649.5852933176</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.585293317</v>
+        <v>540649.5852933171</v>
       </c>
       <c r="E6" t="n">
-        <v>288729.9158379493</v>
+        <v>288382.5365835925</v>
       </c>
       <c r="F6" t="n">
-        <v>614142.3776453049</v>
+        <v>613794.9983909475</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453049</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453048</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453049</v>
+        <v>613794.9983909476</v>
       </c>
       <c r="J6" t="n">
-        <v>396611.1752480273</v>
+        <v>396263.7959936699</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.3776453045</v>
+        <v>613794.9983909476</v>
       </c>
       <c r="L6" t="n">
-        <v>614142.3776453048</v>
+        <v>613794.9983909475</v>
       </c>
       <c r="M6" t="n">
-        <v>529087.349709793</v>
+        <v>528739.9704554356</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.377645305</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.3776453047</v>
+        <v>613794.9983909478</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.377645305</v>
+        <v>613794.9983909476</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973562</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>12.33598323394142</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7421405632639</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>147.8090710962307</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>137.6520245122264</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>218.0651767076291</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>291.4251788534393</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944224</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>112.6370078703794</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>56.71025507623884</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>291.4251788534397</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4632799169628</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>23.00310070767263</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.729124313443118e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.008208757579714e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>459.3154675919703</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>459.3154675919703</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>316.7192231475259</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>316.7192231475259</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3336801.602666447</v>
+        <v>3338562.132969235</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087150.98111448</v>
+        <v>8087150.981114479</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.54006250777</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.8311766092712</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.95995423521121</v>
+        <v>56.09817254341074</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8108690340823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>120.6088074159629</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.70057996958599</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039699</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.477506711937</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777596</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991708</v>
       </c>
       <c r="H10" t="n">
-        <v>121.7519142066482</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>38.21875275158361</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444149</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>95.12712756824217</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518789</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.91555826189101</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2332.706849548772</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1963.74433260836</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.478634001609</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.690381403365</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2715.573417067789</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612893</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2719.306689612893</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064761</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1795.080298689242</v>
+        <v>1870.629727337574</v>
       </c>
       <c r="T4" t="n">
-        <v>1795.080298689242</v>
+        <v>1648.8631119071</v>
       </c>
       <c r="U4" t="n">
-        <v>1795.080298689242</v>
+        <v>1648.8631119071</v>
       </c>
       <c r="V4" t="n">
-        <v>1540.395810483355</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>1540.395810483355</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221565</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281154</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744032</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="E5" t="n">
-        <v>268.262212076159</v>
+        <v>599.3250994197333</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678283</v>
+        <v>188.3391946301257</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792693</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522579</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261499</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285687</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518377</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395019</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571088</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591984</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153514</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009984</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3272.598239071861</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.620491456084</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4947,19 +4947,19 @@
         <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>433.7094726336153</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>286.8195251357049</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>286.8195251357049</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1055.185257670615</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>886.2490747427084</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>736.1324353303727</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2193417479796</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>441.3293942500692</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>274.1332949649491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>132.4214638071472</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1685.615852542402</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1457.626301644385</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.833722500855</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,46 +5284,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362698</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6378,55 +6378,55 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
         <v>753.3092412490405</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168636</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.397437740962089e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.397437740962089e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.04708356698191</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53.48834544997018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.066132532898337e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231449</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,19 +26441,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179341</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342754</v>
+        <v>-788095.1604342756</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933176</v>
+        <v>540649.5852933174</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933171</v>
+        <v>540649.5852933178</v>
       </c>
       <c r="E6" t="n">
-        <v>288382.5365835925</v>
+        <v>288695.177912514</v>
       </c>
       <c r="F6" t="n">
-        <v>613794.9983909475</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="G6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="H6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.6397198689</v>
       </c>
       <c r="I6" t="n">
-        <v>613794.9983909476</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="J6" t="n">
-        <v>396263.7959936699</v>
+        <v>396576.4373225915</v>
       </c>
       <c r="K6" t="n">
-        <v>613794.9983909476</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="L6" t="n">
-        <v>613794.9983909475</v>
+        <v>614107.639719869</v>
       </c>
       <c r="M6" t="n">
-        <v>528739.9704554356</v>
+        <v>529052.6117843573</v>
       </c>
       <c r="N6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.6397198694</v>
       </c>
       <c r="O6" t="n">
-        <v>613794.9983909478</v>
+        <v>614107.6397198687</v>
       </c>
       <c r="P6" t="n">
-        <v>613794.9983909476</v>
+        <v>614107.6397198689</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.33598323394142</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>287.9210818608637</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>147.8090710962307</v>
+        <v>133.6708527880311</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.0651767076291</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.3129182374906</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.32522828944224</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.110451203431</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.71025507623884</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923753</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911114</v>
       </c>
       <c r="H10" t="n">
-        <v>23.00310070767263</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.008208757579714e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724557</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.0482712280113</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
